--- a/MCI_Ü/UE5/UE5_1_Evaluation.xlsx
+++ b/MCI_Ü/UE5/UE5_1_Evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/739389984d53737f/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/739389984d53737f/桌面/WS  2324/WS_2324/MCI/MCI_Ü/UE5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="8_{331D39C6-1E57-C947-8300-FE8D034A0421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C658553D-0B19-2A45-AEF5-9BEC408468CB}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="8_{331D39C6-1E57-C947-8300-FE8D034A0421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EA37B2A-A115-6744-8DD7-E40223CF6848}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3642C520-291A-5C44-9471-BDDF03E56348}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{3642C520-291A-5C44-9471-BDDF03E56348}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,43 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Aufgabe 5.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列1</t>
-  </si>
-  <si>
-    <t>列2</t>
-  </si>
-  <si>
-    <t>Proband A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列3</t>
-  </si>
-  <si>
-    <t>列4</t>
-  </si>
-  <si>
-    <t>Proband B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列5</t>
-  </si>
-  <si>
-    <t>列6</t>
-  </si>
-  <si>
-    <t>Proband C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列7</t>
   </si>
   <si>
     <t>Rating</t>
@@ -176,9 +143,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,6 +160,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,18 +190,295 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -291,44 +541,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{855BF772-DB73-6848-9AED-D86D3D242724}" name="表1" displayName="表1" ref="C1:L8" totalsRowShown="0">
-  <autoFilter ref="C1:L8" xr:uid="{855BF772-DB73-6848-9AED-D86D3D242724}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{855BF772-DB73-6848-9AED-D86D3D242724}" name="表1" displayName="表1" ref="C2:L8" headerRowCount="0" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{45A71A75-830F-4948-B7E1-D29714DE57EB}" name="列1"/>
-    <tableColumn id="2" xr3:uid="{8456BF2A-A60E-224D-9592-6E3730FF58DB}" name="列2"/>
-    <tableColumn id="3" xr3:uid="{7981B3D1-D841-CE4A-BB48-B3DC52EA9966}" name="Proband A"/>
-    <tableColumn id="4" xr3:uid="{928D0B50-D28F-7B40-A31C-3AB5016706FF}" name="列3"/>
-    <tableColumn id="5" xr3:uid="{F86D335A-DC6A-9F43-A433-16DFF49A4F49}" name="列4"/>
-    <tableColumn id="6" xr3:uid="{DDFBB3A5-2CD3-2A4A-952D-187A79295006}" name="Proband B"/>
-    <tableColumn id="7" xr3:uid="{A0195518-AE1F-F34F-A0ED-619FF48E9BA2}" name="列5"/>
-    <tableColumn id="8" xr3:uid="{713C92F4-4F01-1044-9F3F-5D86E77C8AA8}" name="列6"/>
-    <tableColumn id="9" xr3:uid="{1C12AB68-2874-7B49-ADB2-7AD9B4A0A8D4}" name="Proband C"/>
-    <tableColumn id="10" xr3:uid="{82E22EA9-27B5-344F-BFF2-8709AC12EC9C}" name="列7"/>
+    <tableColumn id="1" xr3:uid="{45A71A75-830F-4948-B7E1-D29714DE57EB}" name="列1" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{8456BF2A-A60E-224D-9592-6E3730FF58DB}" name="列2" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{7981B3D1-D841-CE4A-BB48-B3DC52EA9966}" name="Proband A" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{928D0B50-D28F-7B40-A31C-3AB5016706FF}" name="列3" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{F86D335A-DC6A-9F43-A433-16DFF49A4F49}" name="列4" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{DDFBB3A5-2CD3-2A4A-952D-187A79295006}" name="Proband B" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{A0195518-AE1F-F34F-A0ED-619FF48E9BA2}" name="列5" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{713C92F4-4F01-1044-9F3F-5D86E77C8AA8}" name="列6" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{1C12AB68-2874-7B49-ADB2-7AD9B4A0A8D4}" name="Proband C" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{82E22EA9-27B5-344F-BFF2-8709AC12EC9C}" name="列7" dataDxfId="11"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D690A3E7-789A-9C46-99BE-19EE4A3A5795}" name="表2" displayName="表2" ref="C15:I28" totalsRowShown="0">
-  <autoFilter ref="C15:I28" xr:uid="{D690A3E7-789A-9C46-99BE-19EE4A3A5795}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D690A3E7-789A-9C46-99BE-19EE4A3A5795}" name="表2" displayName="表2" ref="C16:I28" headerRowCount="0" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{38F16CB2-85AE-2347-9387-BF5B4BDDF860}" name="列1"/>
-    <tableColumn id="2" xr3:uid="{9608BA37-D3CA-C744-83AA-AA34A740A47C}" name="列2"/>
-    <tableColumn id="3" xr3:uid="{186DDA6C-5723-0446-B8D3-90E8E9A38619}" name="列3"/>
-    <tableColumn id="4" xr3:uid="{D7DE4645-5041-0148-969F-75ACD91D0388}" name="列4"/>
-    <tableColumn id="5" xr3:uid="{BCC52C6B-539C-8B4D-B6F3-E777ED50E444}" name="列5"/>
-    <tableColumn id="6" xr3:uid="{D812772A-DDE7-9148-A13F-4274D1434F28}" name="列6"/>
-    <tableColumn id="7" xr3:uid="{C2DCE694-E84E-2C48-B7FA-E13453299D90}" name="列7"/>
+    <tableColumn id="1" xr3:uid="{38F16CB2-85AE-2347-9387-BF5B4BDDF860}" name="列1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{9608BA37-D3CA-C744-83AA-AA34A740A47C}" name="列2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{186DDA6C-5723-0446-B8D3-90E8E9A38619}" name="列3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{D7DE4645-5041-0148-969F-75ACD91D0388}" name="列4" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{BCC52C6B-539C-8B4D-B6F3-E777ED50E444}" name="列5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{D812772A-DDE7-9148-A13F-4274D1434F28}" name="列6" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C2DCE694-E84E-2C48-B7FA-E13453299D90}" name="列7" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -366,7 +614,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -472,7 +720,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -614,7 +862,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -625,681 +873,636 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="42.375" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
         <v>30</v>
       </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
         <f>表1[[#This Row],[列2]]*表1[[#This Row],[Proband A]]</f>
         <v>90</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>10</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
         <f>表1[[#This Row],[列4]]*表1[[#This Row],[Proband B]]</f>
         <v>10</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>35</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
         <f>表1[[#This Row],[列6]]*表1[[#This Row],[Proband C]]</f>
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f>表1[[#This Row],[列2]]*表1[[#This Row],[Proband A]]</f>
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
         <f>表1[[#This Row],[列4]]*表1[[#This Row],[Proband B]]</f>
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>40</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <f>表1[[#This Row],[列6]]*表1[[#This Row],[Proband C]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f>表1[[#This Row],[列2]]*表1[[#This Row],[Proband A]]</f>
         <v>50</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>45</v>
       </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
         <f>表1[[#This Row],[列4]]*表1[[#This Row],[Proband B]]</f>
         <v>90</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>5</v>
       </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
         <f>表1[[#This Row],[列6]]*表1[[#This Row],[Proband C]]</f>
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
         <v>35</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <f>表1[[#This Row],[列2]]*表1[[#This Row],[Proband A]]</f>
         <v>35</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>40</v>
       </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
         <f>表1[[#This Row],[列4]]*表1[[#This Row],[Proband B]]</f>
         <v>160</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>5</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <f>表1[[#This Row],[列6]]*表1[[#This Row],[Proband C]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
         <v>10</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
         <f>表1[[#This Row],[列2]]*表1[[#This Row],[Proband A]]</f>
         <v>30</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>10</v>
       </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
         <f>表1[[#This Row],[列4]]*表1[[#This Row],[Proband B]]</f>
         <v>40</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>20</v>
       </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1">
         <f>表1[[#This Row],[列6]]*表1[[#This Row],[Proband C]]</f>
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
         <v>40</v>
       </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
         <f>表1[[#This Row],[列2]]*表1[[#This Row],[Proband A]]</f>
         <v>120</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>25</v>
       </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
         <f>表1[[#This Row],[列4]]*表1[[#This Row],[Proband B]]</f>
         <v>50</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>10</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>5</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <f>表1[[#This Row],[列6]]*表1[[#This Row],[Proband C]]</f>
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
         <f>SUM(E3:E8)</f>
         <v>15</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f>SUM(F3:F8)</f>
         <v>325</v>
       </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1">
         <f>SUM(H3:H8)</f>
         <v>15</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <f>SUM(I3:I8)</f>
         <v>350</v>
       </c>
-      <c r="J9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9">
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1">
         <f>SUM(K3:K8)</f>
         <v>15</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <f>SUM(L3:L8)</f>
         <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2">
         <f>F9/E9</f>
         <v>21.666666666666668</v>
       </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2">
         <f>I9/H9</f>
         <v>23.333333333333332</v>
       </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="2">
         <f>L9/K9</f>
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="G15" t="s">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="1">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="1">
         <v>7</v>
       </c>
-      <c r="H15" t="s">
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="1">
         <v>8</v>
       </c>
-      <c r="I15" t="s">
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="1">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9">
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9">
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9">
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9">
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9">
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9">
-      <c r="C22">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9">
-      <c r="C23">
-        <v>7</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9">
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9">
-      <c r="C25">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9">
-      <c r="C26">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="3:9">
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27">
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1">
         <f>SUM(G17:G26)</f>
         <v>34</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <f>SUM(H17:H26)</f>
         <v>7</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <f>SUM(I17:I26)</f>
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="3:9">
-      <c r="C28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28">
+      <c r="C28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1">
         <f>2.5*G27</f>
         <v>85</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <f>2.5*H27</f>
         <v>17.5</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
         <f>2.5*I27</f>
         <v>80</v>
       </c>
